--- a/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/m5.xlsx
+++ b/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/m5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,52 +560,52 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 37</t>
+          <t>Pág 51</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>De acordo com as considerações iniciais sobre o Plano Setorial de Mobilização Militar (PSMM), qual é a autoridade responsável pela sua aprovação antes do envio à Secretaria Executiva do SINAMOB?</t>
+          <t>Ao propor o Chefe do Estado-Maior Conjunto (EMCj) ao CEMCFA, qual critério principal o Comandante Operacional deve observar?</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>O Chefe do Estado-Maior Conjunto das Forças Armadas (CEMCFA).</t>
+          <t>A antiguidade absoluta entre todos os oficiais generais disponíveis no Ministério da Defesa.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>O Chefe de Logística e Mobilização (CHELOG).</t>
+          <t>A predominância das operações no Teatro de Operações ou Área de Operações (TO/A Op).</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>O Ministro de Estado da Defesa (Min Def).</t>
+          <t>O rodízio obrigatório entre as três Forças Singulares, independentemente da natureza da missão.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>O Presidente da República.</t>
+          <t>A experiência prévia do oficial em missões de paz da ONU, exclusivamente.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Conforme o **item 5.1.5**, após a sua aprovação pelo Ministro de Estado da Defesa (Min Def), o PSMM será enviado à Secretaria Executiva do SINAMOB.</t>
+          <t>Conforme o **item 5.1.3**, o comandante deve atentar para a predominância das operações no TO/A Op ao propor o Chefe do EMCj.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -614,52 +614,52 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 38</t>
+          <t>Pág 52</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>No que tange à elaboração das Listas de Carências (LC) que integram o PSMM, qual dado financeiro deve constar obrigatoriamente como fator de planejamento?</t>
+          <t>Qual é o objetivo principal das reuniões formais realizadas no âmbito do Estado-Maior Conjunto?</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>O custo estimado total, correspondente ao somatório dos custos estimados de todas as carências.</t>
+          <t>Apenas repassar avisos administrativos gerais sem impacto nas operações táticas.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>O custo unitário de cada item, sem a necessidade de totalização global.</t>
+          <t>Viabilizar a tomada de decisões que resultem em ações a serem executadas pelas Forças Componentes e que requeiram coordenação.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>O valor de mercado internacional dos itens, desconsiderando impostos nacionais.</t>
+          <t>Realizar adestramento físico dos oficiais do Estado-Maior.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Apenas o custo de manutenção dos equipamentos, excluindo a aquisição.</t>
+          <t>Substituir a cadeia de comando formal por decisões colegiadas de consenso obrigatório.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Nos termos do **item 5.3.4.3**, a LC deverá conter o custo estimado total, como fator de planejamento, que é o valor correspondente ao somatório dos custos estimados de todas as carências.</t>
+          <t>De acordo com o **item 5.2.3**, o objetivo principal é viabilizar a tomada de decisões que resultem em ações que requeiram coordenação.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -668,42 +668,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág 39</t>
+          <t>Pág 53</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Durante a fase de Execução da Mobilização, como devem ser empreendidas as ações planejadas anteriormente na fase de Preparo?</t>
+          <t>Dentre as atribuições do Chefe do EMCj, qual das opções abaixo descreve corretamente sua função em relação às reuniões formais do Comando Operacional?</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>De forma voluntária e negociada com o setor privado.</t>
+          <t>Presidir apenas as reuniões informais, delegando as formais aos Chefes de Seção.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>De modo acelerado e compulsório, podendo ser replanejadas se necessário.</t>
+          <t>Coordenar as reuniões formais que têm por finalidade a aprovação da Ordem de Coordenação.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>De maneira gradativa e sequencial, para evitar choques na economia.</t>
+          <t>Realizar a ata das reuniões sem participar das discussões decisórias.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Exclusivamente por meio de novos contratos, descartando o planejamento prévio.</t>
+          <t>Vetar qualquer decisão tomada pelo Comandante Operacional durante as reuniões.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Conforme o **item 5.3.6**, a partir da decretação da Mobilização Nacional, as ações serão empreendidas de modo acelerado e compulsório.</t>
+          <t>Nos termos do **item 5.3.1, alínea 'e'**, compete ao Chefe do EMCj coordenar as reuniões formais para aprovação da Ordem de Coordenação.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -722,56 +722,326 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág 40</t>
+          <t>Pág 54</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cap. 5 - Plano Setorial de Mobilização Militar</t>
+          <t>Cap. V - Estado-Maior Conjunto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Diferentemente da Mobilização, a fase de Execução da Desmobilização Militar possui características específicas para garantir o retorno à normalidade. Como essa execução deve ser iniciada?</t>
+          <t>A quem compete coordenar as atividades de meteorologia e oceanografia (METOC) entre os elementos dos demais Estados-Maiores?</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>De forma imediata e total, assim que cessarem os motivos da mobilização.</t>
+          <t>Ao Chefe da Seção de Pessoal (D-1).</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>De forma acelerada e compulsória, para liberar recursos rapidamente.</t>
+          <t>Ao Chefe da Seção de Inteligência (D-2).</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>De forma ordenada e gradativa, a fim de fazer face a um possível recrudescimento das ações do oponente.</t>
+          <t>Ao Chefe da Seção de Logística (D-4).</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>De forma descentralizada, ficando a critério de cada Força Singular sem coordenação central.</t>
+          <t>Ao Chefe da Seção de Comunicação Social (D-7).</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>De acordo com o **item 5.3.9**, a execução da Desmobilização Militar será iniciada de forma ordenada e gradativa.</t>
+          <t>Conforme o **item 5.3.4, alínea 's'**, é atribuição do Chefe da Seção de Inteligência (D-2) coordenar as atividades de METOC.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pág 55</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Qual Seção do EMCj é responsável por ativar a Subseção de Guerra Cibernética (SGC) em sua estrutura para coordenar o emprego dessa capacidade?</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Seção de Inteligência (D-2).</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Seção de Operações (D-3).</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Seção de Comando e Controle (D-6).</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Seção de Operações de Informação (D-8).</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Segundo o **item 5.3.5, alínea 'o'**, o Chefe da Seção de Operações (D-3) deve ativar a Subseção de Guerra Cibernética.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pág 56</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>O Gerenciamento do Risco Operacional (GRO) é uma atribuição específica de qual chefe de seção do EMCj?</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Chefe da Seção de Planejamento (D-5).</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chefe da Seção de Operações (D-3).</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Chefe da Seção de Inteligência (D-2).</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Chefe da Seção de Assuntos Civis (D-9).</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Conforme o **item 5.3.7, alínea 'l'**, realizar o Gerenciamento do Risco Operacional (GRO) é atribuição da Seção de Planejamento (D-5).</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pág 57</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>A quem compete planejar as atividades de Guerra Eletrônica, em coordenação com as demais seções do EMCj?</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ao Chefe da Seção de Operações (D-3).</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ao Chefe da Seção de Comando e Controle (D-6).</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ao Chefe da Seção de Inteligência (D-2).</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ao Chefe da Seção de Operações de Informação (D-8).</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>De acordo com o **item 5.3.8, alínea 'h'**, planejar as atividades de Guerra Eletrônica é atribuição do Chefe da Seção de Comando e Controle (D-6).</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pág 58</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Qual seção tem a atribuição de verificar os serviços públicos e infraestruturas críticas a serem preservados no TO/A Op?</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Seção de Logística e Mobilização (D-4).</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Seção de Planejamento (D-5).</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Seção de Assuntos Civis (D-9).</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Seção de Administração Financeira (D-10).</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Nos termos do **item 5.3.11, alínea 'e'**, verificar serviços públicos e infraestruturas críticas é atribuição da Seção de Assuntos Civis (D-9).</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pág 59</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Cap. V - Estado-Maior Conjunto</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Por que o EMCFA auxilia na estruturação inicial do EMCj de um Comando Operacional ativado em meio a uma crise?</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Porque os Comandantes Operacionais não possuem autoridade para estruturar seus Estados-Maiores.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Devido à inexistência de comandos operacionais conjuntos permanentemente ativados desde o tempo de paz que gerenciem todo o ciclo operacional.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Porque a legislação proíbe a criação de estruturas *ad hoc* durante conflitos.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Para garantir que apenas civis ocupem as funções de chefia nas seções.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Conforme o **item 5.4.1**, a inexistência de comandos operacionais conjuntos permanentemente ativados em tempo de paz impede o gerenciamento imediato, exigindo auxílio do EMCFA.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
